--- a/data/trans_camb/P16A_n_R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R3-Provincia-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.7973051115833234</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.155064178338274</v>
+        <v>1.155064178338273</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.442283042322451e-05</v>
+        <v>0.005876610092880627</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3792007382664692</v>
+        <v>-0.3002544122359072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01227982261000813</v>
+        <v>0.02205952704809918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.92109396255408</v>
+        <v>-3.238103145454042</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.797482741139842</v>
+        <v>-2.979742233952617</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.080138199661956</v>
+        <v>-2.209891742148094</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.9544670904159636</v>
+        <v>-1.012695143231623</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8972209782249944</v>
+        <v>-0.9149097985963427</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.503769993924698</v>
+        <v>-0.3258288131203572</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.57306582753521</v>
+        <v>4.740101080502875</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.922946508472785</v>
+        <v>3.096123139483971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.256005094540422</v>
+        <v>3.193427755736066</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.782646574895725</v>
+        <v>2.523042894836217</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.129307812722754</v>
+        <v>3.096430618048444</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.2105258869961</v>
+        <v>2.981086531297509</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.650399339859318</v>
+        <v>2.570348758935717</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.649251814436223</v>
+        <v>2.51353443735796</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.52218415076852</v>
+        <v>2.659939487157827</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.4614257429777421</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.6684722560204154</v>
+        <v>0.6684722560204149</v>
       </c>
     </row>
     <row r="8">
@@ -780,29 +780,27 @@
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr"/>
-      <c r="D8" s="6" t="n">
-        <v>-0.6963444629480693</v>
-      </c>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.652620790898222</v>
+        <v>-0.4588008403255563</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6804441991516601</v>
+        <v>-0.7504516247112767</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6317846648301824</v>
+        <v>-0.6634038663106359</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4627278034946914</v>
+        <v>-0.441696607062514</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4443711499238099</v>
+        <v>-0.4621426079046393</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3863642443368107</v>
+        <v>-0.4061852934480757</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2159669877252604</v>
+        <v>-0.1806676846597721</v>
       </c>
     </row>
     <row r="9">
@@ -816,22 +814,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>2.292429924160328</v>
+        <v>1.865240752311841</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.201378889068808</v>
+        <v>2.093240432627526</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.363288380222758</v>
+        <v>2.36128127240141</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.560045870215201</v>
+        <v>2.382358010223019</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.745980118142849</v>
+        <v>2.488600700096863</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.953728637356345</v>
+        <v>2.855514039276179</v>
       </c>
     </row>
     <row r="10">
@@ -852,7 +850,7 @@
         <v>0.3314889846991999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.445785112432232</v>
+        <v>2.445785112432233</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.500967439649835</v>
@@ -870,7 +868,7 @@
         <v>-0.1671133897848464</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.910060361083172</v>
+        <v>2.910060361083171</v>
       </c>
     </row>
     <row r="11">
@@ -881,31 +879,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5945907388644185</v>
+        <v>0.6507030260776074</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.202838946302115</v>
+        <v>-0.9647789126264209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5042912088735259</v>
+        <v>0.6755417246990644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3973923656170965</v>
+        <v>-0.1801493636288715</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.097161157257133</v>
+        <v>-2.800094651536889</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8720152134433581</v>
+        <v>0.8000626674619694</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7334546230478376</v>
+        <v>0.7513117145490886</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.797040515666462</v>
+        <v>-1.634865925259752</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.24252416400059</v>
+        <v>1.151846972096298</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +914,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.261398880457589</v>
+        <v>5.065264738390272</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.798318672603936</v>
+        <v>1.776781555614296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.662054096336532</v>
+        <v>4.78762358074069</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.420416275501835</v>
+        <v>5.257888723137646</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.61869450906119</v>
+        <v>1.848557744951367</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.976193003090895</v>
+        <v>5.914780946357883</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.45280592770824</v>
+        <v>4.50503724709827</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.269769421076279</v>
+        <v>1.195733870143454</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.541809979282562</v>
+        <v>4.499938541210902</v>
       </c>
     </row>
     <row r="13">
@@ -986,31 +984,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.08710821751237834</v>
+        <v>0.06523974254155331</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5878989311430567</v>
+        <v>-0.5805560614201574</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1210167951885017</v>
+        <v>0.1052600864221356</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08912557032407806</v>
+        <v>-0.0871416874462488</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5965871392276977</v>
+        <v>-0.5660785446597891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1016366098550839</v>
+        <v>0.0657641645660592</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1776274089070954</v>
+        <v>0.1755245989323596</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5098449747184197</v>
+        <v>-0.487531011323088</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3658555395085325</v>
+        <v>0.3283071797877963</v>
       </c>
     </row>
     <row r="15">
@@ -1021,31 +1019,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8.14347410215435</v>
+        <v>8.076021929072702</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.836664725487042</v>
+        <v>3.678957306614567</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8.286109009829969</v>
+        <v>8.464076508274864</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.782214822096904</v>
+        <v>1.85980240580807</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5996575047712605</v>
+        <v>0.6920410350679319</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.134899525348309</v>
+        <v>2.051187595768163</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.318540447584064</v>
+        <v>2.19598305552632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7274152722942003</v>
+        <v>0.6373958223881164</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.342430371203732</v>
+        <v>2.327888082326386</v>
       </c>
     </row>
     <row r="16">
@@ -1095,31 +1093,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6024532187759867</v>
+        <v>-0.6019504636044548</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6819865882192028</v>
+        <v>-0.6672228798983298</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.421695334489647</v>
+        <v>4.502774594390254</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6004755354078289</v>
+        <v>0.6296369247268249</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6144730296623476</v>
+        <v>0.8606941000169908</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>10.85727272159665</v>
+        <v>11.05106738212455</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1710691950217276</v>
+        <v>0.1853629755485308</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3502664814433967</v>
+        <v>0.2957656936792411</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.492427171761681</v>
+        <v>8.57956659383642</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1128,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9641338452957862</v>
+        <v>0.9557253977123391</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9890211269759052</v>
+        <v>0.9825317827867479</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.311708918954917</v>
+        <v>9.482243757143902</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.515027343967239</v>
+        <v>3.398642612086689</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.146100793335333</v>
+        <v>4.07128926783478</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.34653926462846</v>
+        <v>16.30661152688179</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.746338257748191</v>
+        <v>1.978559069608997</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.257032058790264</v>
+        <v>2.166299267975211</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.31558129506344</v>
+        <v>12.4785090854205</v>
       </c>
     </row>
     <row r="19">
@@ -1195,7 +1193,7 @@
         <v>7.475045456861265</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>70.97740386152293</v>
+        <v>70.97740386152292</v>
       </c>
     </row>
     <row r="20">
@@ -1259,7 +1257,7 @@
         <v>5.269619187664947</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.162530413140321</v>
+        <v>5.162530413140322</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.179147853013954</v>
@@ -1268,7 +1266,7 @@
         <v>3.537590647524962</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.906514221652053</v>
+        <v>4.906514221652052</v>
       </c>
     </row>
     <row r="23">
@@ -1279,31 +1277,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8835848441948864</v>
+        <v>-0.7628271939279182</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.143920713436781</v>
+        <v>-0.01563077326318379</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.458084290771222</v>
+        <v>2.48792600013964</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.796109103637532</v>
+        <v>2.83478497279199</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.196302075441046</v>
+        <v>2.110987555364476</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.52634085563186</v>
+        <v>2.621971779750816</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.379858063312543</v>
+        <v>1.542868871913845</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.718220584183821</v>
+        <v>1.990984859289362</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.342998581929331</v>
+        <v>3.295990936302787</v>
       </c>
     </row>
     <row r="24">
@@ -1314,31 +1312,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.168311545274042</v>
+        <v>2.172496763478962</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.49907910241223</v>
+        <v>3.545170829860918</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.734101980225998</v>
+        <v>7.412308898065898</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.876433033815449</v>
+        <v>9.034314220621827</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.99334462333352</v>
+        <v>8.500695154437057</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.28612544060208</v>
+        <v>7.36527662994363</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.943690279753069</v>
+        <v>5.003511055794462</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.37829558876147</v>
+        <v>5.579953718693554</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.466307304729078</v>
+        <v>6.694250445218791</v>
       </c>
     </row>
     <row r="25">
@@ -1373,7 +1371,7 @@
         <v>2.439846123813146</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>3.383981047526603</v>
+        <v>3.383981047526602</v>
       </c>
     </row>
     <row r="26">
@@ -1387,28 +1385,28 @@
         <v>-1</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1412722618289418</v>
+        <v>-0.4659722555169365</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.307085837669173</v>
+        <v>1.008080545187749</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.6528242077991548</v>
+        <v>0.7545199821865687</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5256463758543644</v>
+        <v>0.557330223909423</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5327369895115652</v>
+        <v>0.6388667052023711</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5527964412433377</v>
+        <v>0.6676220626212576</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7476484903891316</v>
+        <v>0.8283417011110005</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.48361497524274</v>
+        <v>1.497574830500264</v>
       </c>
     </row>
     <row r="27">
@@ -1420,26 +1418,28 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>15.80172389756816</v>
-      </c>
-      <c r="E27" s="6" t="inlineStr"/>
+        <v>13.62978425182373</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>24.58409374845779</v>
+      </c>
       <c r="F27" s="6" t="n">
-        <v>7.639772911552482</v>
+        <v>8.850387033888673</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7.99511857454481</v>
+        <v>8.170587022596187</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6.579506748353978</v>
+        <v>6.910259462081852</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5.462271602807634</v>
+        <v>5.514289325818131</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6.000563529989205</v>
+        <v>5.78812129879674</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7.991132052042729</v>
+        <v>7.668758677593552</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1469,7 @@
         <v>2.819093150317912</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>11.11567562734914</v>
+        <v>11.11567562734913</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>8.371915063630093</v>
@@ -1478,7 +1478,7 @@
         <v>1.869330284661915</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>8.398791603117832</v>
+        <v>8.39879160311783</v>
       </c>
     </row>
     <row r="29">
@@ -1489,31 +1489,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.632497800115477</v>
+        <v>1.601453158697328</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.497656916362631</v>
+        <v>-0.4657968943111198</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.024804287057286</v>
+        <v>3.041926481730328</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.56314580849835</v>
+        <v>7.392874656153252</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3947654082379248</v>
+        <v>-0.7531124763290898</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.880450136927678</v>
+        <v>7.400163499373313</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.387536266433273</v>
+        <v>5.651057215516129</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.06085630743748618</v>
+        <v>0.1339630619756277</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.186447689283479</v>
+        <v>6.33952481609016</v>
       </c>
     </row>
     <row r="30">
@@ -1524,31 +1524,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.180068991773187</v>
+        <v>7.694762019580605</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.813467078081223</v>
+        <v>2.948589528408224</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.200456934557085</v>
+        <v>8.426455873643937</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18.13311224404247</v>
+        <v>17.77648255752101</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.631198639016402</v>
+        <v>6.295669609753076</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.37854734011367</v>
+        <v>14.45884708070681</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.2945225742503</v>
+        <v>11.62357324016718</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.83833233698313</v>
+        <v>4.161926526954648</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.48513184131778</v>
+        <v>10.69134922111092</v>
       </c>
     </row>
     <row r="31">
@@ -1574,7 +1574,7 @@
         <v>1.418678739266026</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5.593845908681454</v>
+        <v>5.593845908681452</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>6.86392552598635</v>
@@ -1583,7 +1583,7 @@
         <v>1.532617538504589</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>6.885960934138242</v>
+        <v>6.885960934138241</v>
       </c>
     </row>
     <row r="32">
@@ -1597,22 +1597,22 @@
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>1.526229332328364</v>
+        <v>1.59530393639133</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.359375761094977</v>
+        <v>-0.417253971773383</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.748683927036738</v>
+        <v>1.625285539291395</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>2.186058943244183</v>
+        <v>2.346399415980169</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1285322376858797</v>
+        <v>-0.08232023809228357</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>2.236256612366609</v>
+        <v>2.600427856525324</v>
       </c>
     </row>
     <row r="33">
@@ -1626,22 +1626,22 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>23.33206587056417</v>
+        <v>27.27583685938945</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>11.86314000018914</v>
+        <v>8.061810219376937</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>26.40157052510216</v>
+        <v>25.70721278089947</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>20.14148755938476</v>
+        <v>21.50213346179269</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>7.558699573603274</v>
+        <v>8.657318372027349</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>20.15497799277211</v>
+        <v>21.74145473269837</v>
       </c>
     </row>
     <row r="34">
@@ -1691,31 +1691,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.237117490629736</v>
+        <v>-1.231974216643374</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.1106135330832781</v>
+        <v>0.1400339339333088</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6.514866800545111</v>
+        <v>6.615286968668229</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.8696131470653092</v>
+        <v>-0.8856300892362292</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.158559326400351</v>
+        <v>2.17271309981648</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>8.834533148748928</v>
+        <v>9.063002326033677</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.5935042292172098</v>
+        <v>-0.6064362474139124</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.626034018361791</v>
+        <v>1.731572994937852</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>8.627094940137185</v>
+        <v>8.613283957466496</v>
       </c>
     </row>
     <row r="36">
@@ -1726,31 +1726,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.537005395712784</v>
+        <v>1.854752628963079</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.346297285802761</v>
+        <v>4.002521162637457</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.08308881824263</v>
+        <v>12.29363888755736</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.555224876648297</v>
+        <v>3.407079646167401</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.586194285328935</v>
+        <v>9.077190052730288</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.26248762475869</v>
+        <v>14.90001894648656</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.048935690599144</v>
+        <v>1.892253593120854</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.54781675392113</v>
+        <v>5.529067459434075</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>12.61533110647987</v>
+        <v>12.94522311419622</v>
       </c>
     </row>
     <row r="37">
@@ -1776,7 +1776,7 @@
         <v>4.611735229017832</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>10.98037937044254</v>
+        <v>10.98037937044253</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.6959266784480131</v>
@@ -1797,28 +1797,28 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.4091510563936263</v>
+        <v>-0.3581324408675101</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2.91141133541674</v>
+        <v>2.989135949042561</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.660197744893111</v>
+        <v>-0.7145073191035207</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.3527912131827619</v>
+        <v>0.4675487085965079</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.79143026489481</v>
+        <v>2.987104081261004</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5042665939689736</v>
+        <v>-0.5556540179989576</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.8554130840046028</v>
+        <v>0.930802292363876</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>4.712385593962733</v>
+        <v>4.902051745827662</v>
       </c>
     </row>
     <row r="39">
@@ -1831,21 +1831,23 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
-      <c r="F39" s="6" t="inlineStr"/>
+      <c r="F39" s="6" t="n">
+        <v>10.41136071563117</v>
+      </c>
       <c r="G39" s="6" t="n">
-        <v>21.52650243882397</v>
+        <v>23.58934498206239</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>40.05532454205886</v>
+        <v>41.45867496220574</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>5.971923986303201</v>
+        <v>5.4656517762406</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>13.94384025883389</v>
+        <v>13.86836830604986</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>38.31005742456907</v>
+        <v>35.33885895373948</v>
       </c>
     </row>
     <row r="40">
@@ -1895,31 +1897,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.211506820882369</v>
+        <v>-2.227071597901126</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.358985544727412</v>
+        <v>-1.345867715128607</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.6288169939878548</v>
+        <v>-0.5584738233849329</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.7890386808466506</v>
+        <v>-0.8142980658437697</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4999574443630592</v>
+        <v>-0.4114550450856959</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.771400815814115</v>
+        <v>6.770105928064339</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.033144452422555</v>
+        <v>-1.041469473259204</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.4147655727802613</v>
+        <v>-0.3964356242011814</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.778485714795237</v>
+        <v>3.706667541989666</v>
       </c>
     </row>
     <row r="42">
@@ -1930,31 +1932,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.9170787719383195</v>
+        <v>0.8011236476310792</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.086709324920221</v>
+        <v>2.298234996355952</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.777282520803905</v>
+        <v>2.949081903531378</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.512057660383646</v>
+        <v>2.446098146741494</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.013967199023463</v>
+        <v>3.186918665276373</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>11.11970659237524</v>
+        <v>11.08771444170164</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.255103678999252</v>
+        <v>1.238685097805817</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.01693294147222</v>
+        <v>2.250705532925499</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.666860601805423</v>
+        <v>6.555337139848478</v>
       </c>
     </row>
     <row r="43">
@@ -2000,31 +2002,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7425951279643119</v>
+        <v>-0.7535825872610513</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4744744650912028</v>
+        <v>-0.4753470386906311</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2361820411774053</v>
+        <v>-0.2194510957792913</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3350839218394767</v>
+        <v>-0.3218714125482552</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2120844820462832</v>
+        <v>-0.1859151433057293</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>2.114126575553565</v>
+        <v>2.152083217686486</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4090169891552251</v>
+        <v>-0.4159142544049227</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1731438369405277</v>
+        <v>-0.2110543871285079</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.378755771140071</v>
+        <v>1.293882184686764</v>
       </c>
     </row>
     <row r="45">
@@ -2035,31 +2037,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7891545452753096</v>
+        <v>0.6392036140325362</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.462189827279008</v>
+        <v>1.635753448269343</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.051853721407919</v>
+        <v>2.38024131833579</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.86619755947827</v>
+        <v>1.961827442428452</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.290557720128244</v>
+        <v>2.525831962252676</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>8.822502754172007</v>
+        <v>9.208479879760439</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8527605529333828</v>
+        <v>0.8581495263885653</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.334800801252407</v>
+        <v>1.414512942635382</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>4.733872230880086</v>
+        <v>4.451493172539827</v>
       </c>
     </row>
     <row r="46">
@@ -2089,7 +2091,7 @@
         <v>1.042334685863921</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>5.354753003240116</v>
+        <v>5.354753003240119</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.3121688392850757</v>
@@ -2109,31 +2111,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.167615874661307</v>
+        <v>-3.216057849616101</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.458804522164259</v>
+        <v>-3.521201698084722</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.08603912904175351</v>
+        <v>-0.324628530389382</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.025328723984906</v>
+        <v>-0.9073653694049699</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.344934472697158</v>
+        <v>-1.135827485621154</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>3.167025183629582</v>
+        <v>2.990198231952715</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.554696645430354</v>
+        <v>-1.707387191834842</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.685517265706026</v>
+        <v>-1.874736533479728</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.939664277479155</v>
+        <v>2.065077182486953</v>
       </c>
     </row>
     <row r="48">
@@ -2144,31 +2146,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.2556941852046908</v>
+        <v>-0.3961916352664547</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.8197554279592981</v>
+        <v>-0.6716893769002157</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.371112979407453</v>
+        <v>3.370001559894185</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.444889006408372</v>
+        <v>3.21213669558337</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.144989352258941</v>
+        <v>3.088955196750725</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.647009324314777</v>
+        <v>7.505093472902153</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.031289855583368</v>
+        <v>0.9357059272131867</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.9407133541934087</v>
+        <v>0.7715479818008563</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.860649338421923</v>
+        <v>4.942033990045615</v>
       </c>
     </row>
     <row r="49">
@@ -2185,7 +2187,7 @@
         <v>-0.7195847663761413</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.5676318135347314</v>
+        <v>0.5676318135347311</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2650189963152746</v>
@@ -2214,31 +2216,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8562448719695043</v>
+        <v>-0.8758442515352761</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.9023598502310883</v>
+        <v>-0.9005099293596185</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.05736083881951944</v>
+        <v>-0.1274565384009351</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2141220635307567</v>
+        <v>-0.199859119259208</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2469389699788398</v>
+        <v>-0.2398133028900625</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.577401484768992</v>
+        <v>0.5342153372563422</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3863373240707278</v>
+        <v>-0.4205856825265245</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4125889617775809</v>
+        <v>-0.4539930181469528</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.4686600662180591</v>
+        <v>0.4713432243363232</v>
       </c>
     </row>
     <row r="51">
@@ -2249,31 +2251,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.06778615271439337</v>
+        <v>-0.08091819995853577</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2455116457462996</v>
+        <v>-0.2359541784375098</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.632351852615711</v>
+        <v>1.574906037282662</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.142518476982763</v>
+        <v>1.111885745669937</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.06961486213829</v>
+        <v>1.034679370757982</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>2.477410105657293</v>
+        <v>2.426852127227066</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3675331061550298</v>
+        <v>0.3247230808590499</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3628982439367913</v>
+        <v>0.2859521085100365</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.742528837521456</v>
+        <v>1.759739637626738</v>
       </c>
     </row>
     <row r="52">
@@ -2323,31 +2325,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.3247920559103825</v>
+        <v>-0.3607309055458598</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.3511519863544697</v>
+        <v>-0.3653622642057306</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.55425772873696</v>
+        <v>2.518289280169293</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.466912121440987</v>
+        <v>1.459200034986759</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.8566201765431292</v>
+        <v>0.8528036192990118</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>5.987755070372427</v>
+        <v>6.077839113303648</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.8025726423125591</v>
+        <v>0.8425098567530492</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.4588015521352943</v>
+        <v>0.4696190885798487</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>4.605174341118381</v>
+        <v>4.550766292993878</v>
       </c>
     </row>
     <row r="54">
@@ -2358,31 +2360,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.00105747219287</v>
+        <v>1.001376065276354</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.8626812753393318</v>
+        <v>0.7824932825552868</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.076679820444744</v>
+        <v>4.066869977111481</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.401213658986039</v>
+        <v>3.280731594012795</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.749570672120087</v>
+        <v>2.63666876064084</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>7.867060750233867</v>
+        <v>7.905841208471766</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.981123663556858</v>
+        <v>2.010328864451721</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.585729115920067</v>
+        <v>1.544970354700298</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>5.817705673985167</v>
+        <v>5.761386586771417</v>
       </c>
     </row>
     <row r="55">
@@ -2417,7 +2419,7 @@
         <v>0.4843948548667521</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>2.544408945555688</v>
+        <v>2.544408945555687</v>
       </c>
     </row>
     <row r="56">
@@ -2428,31 +2430,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1886533749727539</v>
+        <v>-0.2233138872011766</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2111859215445643</v>
+        <v>-0.2038567369436127</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>1.350103393427569</v>
+        <v>1.400075277998869</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.4716942744451898</v>
+        <v>0.4758782312052439</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2947549361109055</v>
+        <v>0.2803899751589326</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>1.983428566288909</v>
+        <v>1.95001294910735</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3414942000694397</v>
+        <v>0.3627811574794588</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2025451731525881</v>
+        <v>0.2028226318061019</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1.948317630385555</v>
+        <v>1.918738342448877</v>
       </c>
     </row>
     <row r="57">
@@ -2463,31 +2465,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.8853076590384376</v>
+        <v>0.874293522994008</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.800220783375961</v>
+        <v>0.638179979898028</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>3.510902814030147</v>
+        <v>3.46332544361788</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.511312110532465</v>
+        <v>1.477966000122701</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>1.227982614303372</v>
+        <v>1.211731369932485</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>3.730119467550801</v>
+        <v>3.640213703595498</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.083688204163391</v>
+        <v>1.137691357758387</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.8915281493659791</v>
+        <v>0.8978425349030102</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>3.263760143908893</v>
+        <v>3.287969897844354</v>
       </c>
     </row>
     <row r="58">
